--- a/essay-generation/marking-results.xlsx
+++ b/essay-generation/marking-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chvya\Documents\AI Physics Writing\paper-2\Consent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chvya\Documents\AI-Exam-Completion\essay-generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43BE9CD-FAD2-4F19-AB91-C8CFA333DE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F58D0B-96CA-4A5A-8021-DAD104EFE753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="6" xr2:uid="{B7C6270A-9D90-4161-B3C0-2AF63A51C3DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{B7C6270A-9D90-4161-B3C0-2AF63A51C3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="True" sheetId="4" r:id="rId1"/>
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72B3049-199C-4E72-818D-93D45DF198C5}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177E3A68-6FDA-4BE0-8487-EB7939A6241A}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D27" sqref="A1:I61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2862,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2155E6E3-B384-43F7-8E84-34A68080D92E}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:I61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4466,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33F8551-0E77-4FB7-A5B1-0155D4E5DF29}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6070,8 +6070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184EDF44-8818-4D47-8250-C8EDC58B3193}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7735,7 +7735,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:I61"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9406,9 +9406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06CCF68-7F2D-4077-ABCA-3342AE31060E}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
